--- a/ABHEES.xlsx
+++ b/ABHEES.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cec517565e13055/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{E0BE56F4-19B3-4736-9A15-041449C93D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F29BFD1D-6A87-4901-AF50-1F2B99F3B040}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{FE2C04C4-3B52-4746-955B-733F95F55378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Abhees" sheetId="1" r:id="rId1"/>
+    <sheet name="Abhees Bug Report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -126,13 +127,154 @@
     <t>TC_AB_004</t>
   </si>
   <si>
-    <t>Checking the website is resposive</t>
-  </si>
-  <si>
     <t>The  website should be responsive in across different devices</t>
   </si>
   <si>
     <t>The  website is  responsive in across different devices smartphones and pc etc</t>
+  </si>
+  <si>
+    <t>TC_AB_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open Abhees website in a browser                        2.access the homepage               3.click the option buttons which is at the top right of he home page                </t>
+  </si>
+  <si>
+    <t>Bug id</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Bug description</t>
+  </si>
+  <si>
+    <t>Step to reproduce</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checking the option buttons like about,contact,home in the webpage is responsive and directed to the desired funtionality  properly when clicked </t>
+  </si>
+  <si>
+    <t>The buttons should be responsive and directed to the desired funtionality</t>
+  </si>
+  <si>
+    <t>The button are clickable but not responsive and it is not directin to its assigned funtionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seslin  Sebastian </t>
+  </si>
+  <si>
+    <t>TC_AB_006</t>
+  </si>
+  <si>
+    <t>Check the option button  "learn more"  is responsive,Clickable and directing to a webpage which conains detailed description about he firm "Abhees"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open Abhees website in a browser                        2.access the homepage               3.click the option button "learn more" which is at  centre of the home page                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The buttons are clickable but it is not responding while clicked also not directing  to its functionality </t>
+  </si>
+  <si>
+    <t>TC_AB_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open Abhees website in a browser                        2.access the homepage               3.check for the gallery in the home page            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Check whether  the website contains a gallery to showcase their design models</t>
+  </si>
+  <si>
+    <t>The website should  contain a gallery to showcase the design models</t>
+  </si>
+  <si>
+    <t>The  website have a gallery which contain the design model photos</t>
+  </si>
+  <si>
+    <t>TC_AB_008</t>
+  </si>
+  <si>
+    <t>check the user can zoom in to the photos of the design model in the gallery</t>
+  </si>
+  <si>
+    <t>1.open Abhees website in a browser                        2.access the homepage               3.check the image in the gallery  is enlarged     (zoom in)</t>
+  </si>
+  <si>
+    <t>The websiite should provide the user a clear view(zoomed in view) of the design models in the gallery</t>
+  </si>
+  <si>
+    <t>The websiite does not provide the user a clear view(zoomed in view) of the design models in the gallery</t>
+  </si>
+  <si>
+    <t>Checking the website is responsive</t>
+  </si>
+  <si>
+    <t>Abhees_1</t>
+  </si>
+  <si>
+    <t>Abhees_2</t>
+  </si>
+  <si>
+    <t>Abhees_3</t>
+  </si>
+  <si>
+    <t>Abhees_4</t>
+  </si>
+  <si>
+    <t>Abhees_5</t>
+  </si>
+  <si>
+    <t>1.check the logo is eyecacthy and readable</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>The  social media icons are not responsive and the user can't get access into the desired social media platform</t>
+  </si>
+  <si>
+    <t>1.check  the icons of the other socials is directing to the assigned social media platform</t>
+  </si>
+  <si>
+    <t>The options (About,home,contact) are clickable but not responsive and it is not directing to its assigned funtionality</t>
+  </si>
+  <si>
+    <t>1.check the options are clickable and is directing to its functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The option button  "learn more" clickable but it is not responding while clicked also not directing  to its functionality </t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>1.Check whether the option is leading to the funtionality when clicked</t>
+  </si>
+  <si>
+    <t>1. check he user gets a zoomed in view of the design models when selected the desired photo</t>
   </si>
 </sst>
 </file>
@@ -163,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +330,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,35 +363,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,8 +512,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3175000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -285,8 +544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8961438" y="793750"/>
-          <a:ext cx="3175000" cy="1389063"/>
+          <a:off x="8953500" y="396240"/>
+          <a:ext cx="3238500" cy="1386840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -298,15 +557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2178326</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -335,8 +594,258 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8963891" y="2175164"/>
-          <a:ext cx="3228109" cy="2175163"/>
+          <a:off x="8961120" y="1790700"/>
+          <a:ext cx="3200400" cy="2377440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23446</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A68C068-484D-714A-64B9-F6FD3C9C695A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8956431" y="6846277"/>
+          <a:ext cx="3212123" cy="1805354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30892</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6515E63A-95D1-D7CA-72EC-D24BFEAB4A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8958650" y="8629135"/>
+          <a:ext cx="3212756" cy="1987379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26737</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>13369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9603846-709D-D9DB-CF78-B8D7EBDE80F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8956842" y="4184315"/>
+          <a:ext cx="3208421" cy="1590843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1971534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3171265</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1579328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4091F84D-53F6-5831-D81A-99AA80DA6AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8941594" y="10639284"/>
+          <a:ext cx="3171265" cy="1596138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82841F6D-8DAE-D335-23F8-71A0A1CFDDA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8970818" y="12261273"/>
+          <a:ext cx="3221182" cy="1818409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -665,91 +1174,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A2" zoomScale="63" zoomScaleNormal="110" zoomScaleSheetLayoutView="18" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
     <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="10" max="10" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:11" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -758,27 +1267,28 @@
       <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -787,101 +1297,489 @@
       <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="18"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D40" s="2"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D41" s="2"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D43" s="2"/>
+      <c r="H43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FA2DA7-374E-451D-9D23-285A5A27A3FE}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="27">
+        <v>45795</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="27">
+        <v>45795</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="27">
+        <v>45795</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="27">
+        <v>45795</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="27">
+        <v>45795</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="H14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ABHEES.xlsx
+++ b/ABHEES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cec517565e13055/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FE2C04C4-3B52-4746-955B-733F95F55378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{46237AA9-8AE3-48E9-8A2F-DD59DDE37C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -275,6 +275,36 @@
   </si>
   <si>
     <t>1. check he user gets a zoomed in view of the design models when selected the desired photo</t>
+  </si>
+  <si>
+    <t>TC_AB_009</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>check if there is any opion to showcase  the   previous works,projects done by the company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open Abhees website in a browser                        2.access the homepage                    3.check for option to see the previous works of the company  </t>
+  </si>
+  <si>
+    <t>The website should have  an option for the user to see the previous projects done by the company</t>
+  </si>
+  <si>
+    <t>The website dosen't have an option for viewong previous projects</t>
+  </si>
+  <si>
+    <t>Abhees_6</t>
+  </si>
+  <si>
+    <t>1.check the user gets a option to view  their previous projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        The website dosen't have an option for viewong previous projects</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -355,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -404,11 +434,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,15 +494,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -478,13 +514,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="63" zoomScaleNormal="110" zoomScaleSheetLayoutView="18" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A8" zoomScale="63" zoomScaleNormal="110" zoomScaleSheetLayoutView="18" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,10 +1387,9 @@
       <c r="H5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -1374,7 +1419,7 @@
       <c r="I6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -1465,18 +1510,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J11" s="18"/>
+    <row r="10" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31" s="5"/>
@@ -1543,7 +1604,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,46 +1617,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="26" t="s">
         <v>42</v>
       </c>
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -1604,56 +1665,56 @@
       <c r="F2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="24">
         <v>45795</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="24">
         <v>45795</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1662,94 +1723,107 @@
       <c r="F4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="24">
         <v>45795</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="25" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="24">
         <v>45795</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="24">
         <v>45795</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
+    </row>
+    <row r="7" spans="1:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="24">
+        <v>45795</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="18"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="2"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>

--- a/ABHEES.xlsx
+++ b/ABHEES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cec517565e13055/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{46237AA9-8AE3-48E9-8A2F-DD59DDE37C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{35B4943D-C974-4025-99B7-1EE29E359C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -305,6 +305,27 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>TC_AB_010</t>
+  </si>
+  <si>
+    <t>check if he address details in the homepage is valid and every deails are given</t>
+  </si>
+  <si>
+    <t>The website should give every fields in the address like place,company name,district,state and postal code</t>
+  </si>
+  <si>
+    <t>The website provides a detailed address including every fields of the address except postal code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check  the address is provided with required fields </t>
+  </si>
+  <si>
+    <t>Abhees_7</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -449,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -516,20 +537,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,6 +912,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8562</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9821156-D159-3671-BB25-F3CEC55E3A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10582382" y="15830764"/>
+          <a:ext cx="3193551" cy="1104472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1222,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="63" zoomScaleNormal="110" zoomScaleSheetLayoutView="18" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A10" zoomScale="52" zoomScaleNormal="110" zoomScaleSheetLayoutView="18" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1514,10 +1576,10 @@
       <c r="A10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1529,13 +1591,42 @@
       <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1603,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FA2DA7-374E-451D-9D23-285A5A27A3FE}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="63" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,7 +1889,7 @@
       <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1816,14 +1907,38 @@
       <c r="H7" s="24">
         <v>45795</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="32"/>
-      <c r="D8" s="2"/>
-      <c r="H8" s="5"/>
+    <row r="8" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="24">
+        <v>45795</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>

--- a/ABHEES.xlsx
+++ b/ABHEES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cec517565e13055/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{35B4943D-C974-4025-99B7-1EE29E359C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4E02D1DE-D366-4733-9FE2-3DC0CF4E238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abhees" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -326,13 +326,37 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>TC_AB_011</t>
+  </si>
+  <si>
+    <t>Check if the user gets a whatsapp contact directly from the website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open Abhees website in a browser                        2.access the homepage                 3.look for whatsapp in the socials               </t>
+  </si>
+  <si>
+    <t>The website should add an option  for the user to directly access whatsapp from the website</t>
+  </si>
+  <si>
+    <t>The website does not have an option for  direct access to the whatsapp of the company</t>
+  </si>
+  <si>
+    <t>Abhees_8</t>
+  </si>
+  <si>
+    <t>1.check if the user can access the company's whatsapp directly form the website        2.add an option for whatsapp access in the socials tab</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,11 +561,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,10 +844,10 @@
       <xdr:rowOff>1971534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3171265</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1579328</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2949</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -954,6 +978,56 @@
         <a:xfrm>
           <a:off x="10582382" y="15830764"/>
           <a:ext cx="3193551" cy="1104472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24849</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1571625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61D3389-301D-1AE3-7DBF-B2E0C30BEE07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10601740" y="16921370"/>
+          <a:ext cx="3213652" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,11 +1358,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="52" zoomScaleNormal="110" zoomScaleSheetLayoutView="18" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="51" zoomScaleNormal="110" zoomScaleSheetLayoutView="18" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1301,7 +1375,7 @@
     <col min="10" max="10" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="31.8" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1408,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="109.8" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1439,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="187.8" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1395,7 +1469,7 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="125.4" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -1424,7 +1498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="87" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +1527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="141" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1557,7 @@
       </c>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:11" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="156.6" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
@@ -1513,7 +1587,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="125.4" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>54</v>
       </c>
@@ -1543,7 +1617,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="141" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -1572,7 +1646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="141" thickBot="1">
       <c r="A10" s="27" t="s">
         <v>80</v>
       </c>
@@ -1601,7 +1675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="87" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>90</v>
       </c>
@@ -1630,56 +1704,86 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="125.4" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="31" spans="8:8">
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:8">
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8">
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8">
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8">
       <c r="D35" s="2"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8">
       <c r="D40" s="2"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8">
       <c r="D41" s="2"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8">
       <c r="D43" s="2"/>
       <c r="H43" s="5"/>
     </row>
@@ -1694,11 +1798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FA2DA7-374E-451D-9D23-285A5A27A3FE}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="63" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
@@ -1707,7 +1811,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
@@ -1737,7 +1841,7 @@
       </c>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="109.8" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>65</v>
       </c>
@@ -1766,7 +1870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="101.4" thickBot="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
@@ -1795,7 +1899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="115.8" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>67</v>
       </c>
@@ -1824,7 +1928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="101.4" thickBot="1">
       <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
@@ -1853,7 +1957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="101.4" thickBot="1">
       <c r="A6" s="20" t="s">
         <v>69</v>
       </c>
@@ -1882,14 +1986,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="72.599999999999994" thickBot="1">
       <c r="A7" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1911,7 +2015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="101.4" thickBot="1">
       <c r="A8" s="20" t="s">
         <v>95</v>
       </c>
@@ -1921,7 +2025,7 @@
       <c r="C8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="20" t="s">
         <v>94</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -1940,30 +2044,54 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="115.8" thickBot="1">
+      <c r="A9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="24">
+        <v>45795</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="D11" s="2"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="D12" s="2"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="D14" s="2"/>
       <c r="H14" s="5"/>
     </row>
